--- a/experiment/RUN_ME/stimuli/word_lists/more_5_letter_words.xlsx
+++ b/experiment/RUN_ME/stimuli/word_lists/more_5_letter_words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\experiment\RUN_ME\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F3DC9-5A4F-4D60-82D1-162EC0F40A31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D987F0D5-79B6-4E7A-8212-33C4EE09C111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="3052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="3067">
   <si>
     <t>בניין</t>
   </si>
@@ -9180,19 +9180,64 @@
     <t>ירוקת</t>
   </si>
   <si>
-    <t>צלופח</t>
-  </si>
-  <si>
     <t>גטקעס</t>
   </si>
   <si>
-    <t>מדוזה</t>
-  </si>
-  <si>
-    <t>קרציה</t>
-  </si>
-  <si>
-    <t>ברקים</t>
+    <t>ברקים - רק 8 למיליון</t>
+  </si>
+  <si>
+    <t>מדוזה - רק 8 למליון</t>
+  </si>
+  <si>
+    <t>צלופח - רק 6 למליון</t>
+  </si>
+  <si>
+    <t>קרציה - רק 3 למליון</t>
+  </si>
+  <si>
+    <t>גרביל - רק 3 למליון</t>
+  </si>
+  <si>
+    <t>לביאה - רק 7 למיליון</t>
+  </si>
+  <si>
+    <t>מלתחה</t>
+  </si>
+  <si>
+    <t>גלידה</t>
+  </si>
+  <si>
+    <t>כוורת</t>
+  </si>
+  <si>
+    <t>חולצה</t>
+  </si>
+  <si>
+    <t>מקלחת</t>
+  </si>
+  <si>
+    <t>אבוקה</t>
+  </si>
+  <si>
+    <t>מילים נוספות אך לא נפוצות מספיק</t>
+  </si>
+  <si>
+    <t>מילים אשר גבוליות מבחינת סיווג</t>
+  </si>
+  <si>
+    <t>פיסגה</t>
+  </si>
+  <si>
+    <t>פרווה</t>
+  </si>
+  <si>
+    <t>בריכה</t>
+  </si>
+  <si>
+    <t>תמרים</t>
+  </si>
+  <si>
+    <t>קקטוס</t>
   </si>
 </sst>
 </file>
@@ -9578,15 +9623,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3094"/>
+  <dimension ref="A1:O3094"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
@@ -9597,8 +9642,14 @@
       <c r="D1" t="s">
         <v>3042</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2">
         <f t="shared" si="0"/>
@@ -9608,7 +9659,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3">
         <f t="shared" si="0"/>
@@ -9620,8 +9671,20 @@
       <c r="E3" s="3" t="s">
         <v>3045</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I3" s="3" t="s">
+        <v>3044</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>3045</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>3044</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -9633,8 +9696,17 @@
       <c r="E4" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>3048</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3062</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>220</v>
       </c>
@@ -9643,13 +9715,22 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>3051</v>
+        <v>3065</v>
       </c>
       <c r="E5" t="s">
         <v>1987</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>3049</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2544</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>221</v>
       </c>
@@ -9657,40 +9738,58 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>3050</v>
-      </c>
       <c r="E6" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>3050</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3056</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>3049</v>
-      </c>
       <c r="E7" t="s">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+        <v>3047</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3051</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3063</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>3047</v>
+        <v>3066</v>
       </c>
       <c r="E8" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>3052</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -9702,8 +9801,14 @@
       <c r="E9" t="s">
         <v>2498</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>3053</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -9712,8 +9817,11 @@
       <c r="E10" t="s">
         <v>2561</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -9722,8 +9830,11 @@
       <c r="E11" t="s">
         <v>2632</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -9733,7 +9844,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -9743,7 +9854,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -9753,7 +9864,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -9763,7 +9874,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16">
         <f t="shared" si="0"/>
